--- a/Microsoft 365/Current Channel/visiocontrols.xlsx
+++ b/Microsoft 365/Current Channel/visiocontrols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26921"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcoard\OneDrive - Microsoft\Documents\RibbonX Upload\CC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RibbonXThing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{077180CF-75CF-4205-9D1F-194620DB7208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71465EB8-CDE6-459A-B886-0950C8B4D3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="43200" windowHeight="23325"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="visiocontrols" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5630" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5691" uniqueCount="923">
   <si>
     <t>Policy ID</t>
   </si>
@@ -2799,21 +2799,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -2821,7 +2821,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2829,7 +2829,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2837,35 +2837,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2873,7 +2873,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2881,14 +2881,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2896,14 +2896,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2911,7 +2911,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2919,14 +2919,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3333,8 +3333,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I1154" totalsRowShown="0">
-  <autoFilter ref="A1:I1154"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I1164" totalsRowShown="0">
+  <autoFilter ref="A1:I1164"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Control Name"/>
     <tableColumn id="2" name="Control Type"/>
@@ -3361,39 +3361,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3445,7 +3445,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3556,13 +3556,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -3571,6 +3564,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3635,11 +3635,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3647,7 +3667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1154"/>
+  <dimension ref="A1:I1164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -3655,15 +3675,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="1" max="1" width="49.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -23012,10 +23032,10 @@
     </row>
     <row r="988" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B988" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C988" t="s">
         <v>742</v>
@@ -23033,10 +23053,13 @@
         <v>787</v>
       </c>
       <c r="H988">
-        <v>33856</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="989" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>815</v>
+      </c>
       <c r="B989" t="s">
         <v>25</v>
       </c>
@@ -23056,13 +23079,10 @@
         <v>787</v>
       </c>
       <c r="H989">
-        <v>33988</v>
+        <v>33856</v>
       </c>
     </row>
     <row r="990" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A990" t="s">
-        <v>816</v>
-      </c>
       <c r="B990" t="s">
         <v>25</v>
       </c>
@@ -23082,12 +23102,15 @@
         <v>787</v>
       </c>
       <c r="H990">
-        <v>26729</v>
+        <v>33988</v>
       </c>
     </row>
     <row r="991" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>816</v>
+      </c>
       <c r="B991" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C991" t="s">
         <v>742</v>
@@ -23105,15 +23128,12 @@
         <v>787</v>
       </c>
       <c r="H991">
-        <v>22579</v>
+        <v>26729</v>
       </c>
     </row>
     <row r="992" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A992" t="s">
-        <v>790</v>
-      </c>
       <c r="B992" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C992" t="s">
         <v>742</v>
@@ -23131,12 +23151,12 @@
         <v>787</v>
       </c>
       <c r="H992">
-        <v>24962</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B993" t="s">
         <v>25</v>
@@ -23157,12 +23177,12 @@
         <v>787</v>
       </c>
       <c r="H993">
-        <v>24963</v>
+        <v>24962</v>
       </c>
     </row>
     <row r="994" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B994" t="s">
         <v>25</v>
@@ -23183,12 +23203,12 @@
         <v>787</v>
       </c>
       <c r="H994">
-        <v>24980</v>
+        <v>24963</v>
       </c>
     </row>
     <row r="995" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="B995" t="s">
         <v>25</v>
@@ -23199,16 +23219,25 @@
       <c r="D995" t="s">
         <v>811</v>
       </c>
+      <c r="E995" t="s">
+        <v>812</v>
+      </c>
+      <c r="F995" t="s">
+        <v>813</v>
+      </c>
+      <c r="G995" t="s">
+        <v>787</v>
+      </c>
       <c r="H995">
-        <v>34496</v>
+        <v>24980</v>
       </c>
     </row>
     <row r="996" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B996" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C996" t="s">
         <v>742</v>
@@ -23216,16 +23245,13 @@
       <c r="D996" t="s">
         <v>811</v>
       </c>
-      <c r="E996" t="s">
-        <v>817</v>
-      </c>
       <c r="H996">
-        <v>34371</v>
+        <v>34496</v>
       </c>
     </row>
     <row r="997" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B997" t="s">
         <v>36</v>
@@ -23240,15 +23266,15 @@
         <v>817</v>
       </c>
       <c r="H997">
-        <v>34372</v>
+        <v>34371</v>
       </c>
     </row>
     <row r="998" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B998" t="s">
-        <v>779</v>
+        <v>36</v>
       </c>
       <c r="C998" t="s">
         <v>742</v>
@@ -23260,12 +23286,15 @@
         <v>817</v>
       </c>
       <c r="H998">
-        <v>34375</v>
+        <v>34372</v>
       </c>
     </row>
     <row r="999" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>820</v>
+      </c>
       <c r="B999" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C999" t="s">
         <v>742</v>
@@ -23276,16 +23305,13 @@
       <c r="E999" t="s">
         <v>817</v>
       </c>
-      <c r="F999" t="s">
-        <v>820</v>
-      </c>
       <c r="H999">
-        <v>33917</v>
+        <v>34375</v>
       </c>
     </row>
     <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1000" t="s">
-        <v>25</v>
+        <v>781</v>
       </c>
       <c r="C1000" t="s">
         <v>742</v>
@@ -23300,15 +23326,12 @@
         <v>820</v>
       </c>
       <c r="H1000">
-        <v>34374</v>
+        <v>33917</v>
       </c>
     </row>
     <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1001" t="s">
-        <v>754</v>
-      </c>
       <c r="B1001" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C1001" t="s">
         <v>742</v>
@@ -23323,15 +23346,15 @@
         <v>820</v>
       </c>
       <c r="H1001">
-        <v>33912</v>
+        <v>34374</v>
       </c>
     </row>
     <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>787</v>
+        <v>754</v>
       </c>
       <c r="B1002" t="s">
-        <v>781</v>
+        <v>9</v>
       </c>
       <c r="C1002" t="s">
         <v>742</v>
@@ -23346,15 +23369,15 @@
         <v>820</v>
       </c>
       <c r="H1002">
-        <v>24860</v>
+        <v>33912</v>
       </c>
     </row>
     <row r="1003" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>821</v>
+        <v>787</v>
       </c>
       <c r="B1003" t="s">
-        <v>25</v>
+        <v>781</v>
       </c>
       <c r="C1003" t="s">
         <v>742</v>
@@ -23368,16 +23391,13 @@
       <c r="F1003" t="s">
         <v>820</v>
       </c>
-      <c r="G1003" t="s">
-        <v>787</v>
-      </c>
       <c r="H1003">
-        <v>34377</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1004" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B1004" t="s">
         <v>25</v>
@@ -23398,12 +23418,15 @@
         <v>787</v>
       </c>
       <c r="H1004">
-        <v>34367</v>
+        <v>34377</v>
       </c>
     </row>
     <row r="1005" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>811</v>
+      </c>
       <c r="B1005" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C1005" t="s">
         <v>742</v>
@@ -23421,12 +23444,12 @@
         <v>787</v>
       </c>
       <c r="H1005">
-        <v>34369</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1006" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B1006" t="s">
         <v>25</v>
@@ -23447,12 +23470,12 @@
         <v>787</v>
       </c>
       <c r="H1006">
-        <v>34379</v>
+        <v>34367</v>
       </c>
     </row>
     <row r="1007" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1007" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C1007" t="s">
         <v>742</v>
@@ -23470,15 +23493,15 @@
         <v>787</v>
       </c>
       <c r="H1007">
-        <v>22579</v>
+        <v>34369</v>
       </c>
     </row>
     <row r="1008" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>787</v>
+        <v>823</v>
       </c>
       <c r="B1008" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C1008" t="s">
         <v>742</v>
@@ -23492,16 +23515,16 @@
       <c r="F1008" t="s">
         <v>820</v>
       </c>
+      <c r="G1008" t="s">
+        <v>787</v>
+      </c>
       <c r="H1008">
-        <v>24860</v>
+        <v>34379</v>
       </c>
     </row>
     <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1009" t="s">
-        <v>802</v>
-      </c>
       <c r="B1009" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C1009" t="s">
         <v>742</v>
@@ -23519,15 +23542,15 @@
         <v>787</v>
       </c>
       <c r="H1009">
-        <v>34357</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1010" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="B1010" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C1010" t="s">
         <v>742</v>
@@ -23541,16 +23564,16 @@
       <c r="F1010" t="s">
         <v>820</v>
       </c>
-      <c r="G1010" t="s">
-        <v>787</v>
-      </c>
       <c r="H1010">
-        <v>34358</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1011" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>802</v>
+      </c>
       <c r="B1011" t="s">
-        <v>781</v>
+        <v>25</v>
       </c>
       <c r="C1011" t="s">
         <v>742</v>
@@ -23561,11 +23584,20 @@
       <c r="E1011" t="s">
         <v>817</v>
       </c>
+      <c r="F1011" t="s">
+        <v>820</v>
+      </c>
+      <c r="G1011" t="s">
+        <v>787</v>
+      </c>
       <c r="H1011">
-        <v>33917</v>
+        <v>34357</v>
       </c>
     </row>
     <row r="1012" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>803</v>
+      </c>
       <c r="B1012" t="s">
         <v>25</v>
       </c>
@@ -23578,16 +23610,19 @@
       <c r="E1012" t="s">
         <v>817</v>
       </c>
+      <c r="F1012" t="s">
+        <v>820</v>
+      </c>
+      <c r="G1012" t="s">
+        <v>787</v>
+      </c>
       <c r="H1012">
-        <v>34374</v>
+        <v>34358</v>
       </c>
     </row>
     <row r="1013" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1013" t="s">
-        <v>754</v>
-      </c>
       <c r="B1013" t="s">
-        <v>9</v>
+        <v>781</v>
       </c>
       <c r="C1013" t="s">
         <v>742</v>
@@ -23599,15 +23634,12 @@
         <v>817</v>
       </c>
       <c r="H1013">
-        <v>33912</v>
+        <v>33917</v>
       </c>
     </row>
     <row r="1014" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1014" t="s">
-        <v>787</v>
-      </c>
       <c r="B1014" t="s">
-        <v>781</v>
+        <v>25</v>
       </c>
       <c r="C1014" t="s">
         <v>742</v>
@@ -23619,15 +23651,15 @@
         <v>817</v>
       </c>
       <c r="H1014">
-        <v>24860</v>
+        <v>34374</v>
       </c>
     </row>
     <row r="1015" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>821</v>
+        <v>754</v>
       </c>
       <c r="B1015" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C1015" t="s">
         <v>742</v>
@@ -23638,19 +23670,16 @@
       <c r="E1015" t="s">
         <v>817</v>
       </c>
-      <c r="F1015" t="s">
-        <v>787</v>
-      </c>
       <c r="H1015">
-        <v>34377</v>
+        <v>33912</v>
       </c>
     </row>
     <row r="1016" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>822</v>
+        <v>787</v>
       </c>
       <c r="B1016" t="s">
-        <v>25</v>
+        <v>781</v>
       </c>
       <c r="C1016" t="s">
         <v>742</v>
@@ -23661,14 +23690,14 @@
       <c r="E1016" t="s">
         <v>817</v>
       </c>
-      <c r="F1016" t="s">
-        <v>787</v>
-      </c>
       <c r="H1016">
-        <v>34367</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1017" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>821</v>
+      </c>
       <c r="B1017" t="s">
         <v>25</v>
       </c>
@@ -23685,15 +23714,15 @@
         <v>787</v>
       </c>
       <c r="H1017">
-        <v>34369</v>
+        <v>34377</v>
       </c>
     </row>
     <row r="1018" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="B1018" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C1018" t="s">
         <v>742</v>
@@ -23707,13 +23736,19 @@
       <c r="F1018" t="s">
         <v>787</v>
       </c>
+      <c r="G1018" t="s">
+        <v>821</v>
+      </c>
       <c r="H1018">
-        <v>34379</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1019" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>822</v>
+      </c>
       <c r="B1019" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C1019" t="s">
         <v>742</v>
@@ -23727,17 +23762,11 @@
       <c r="F1019" t="s">
         <v>787</v>
       </c>
-      <c r="G1019" t="s">
-        <v>823</v>
-      </c>
       <c r="H1019">
-        <v>22579</v>
+        <v>34367</v>
       </c>
     </row>
     <row r="1020" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1020" t="s">
-        <v>821</v>
-      </c>
       <c r="B1020" t="s">
         <v>25</v>
       </c>
@@ -23750,13 +23779,16 @@
       <c r="E1020" t="s">
         <v>817</v>
       </c>
+      <c r="F1020" t="s">
+        <v>787</v>
+      </c>
       <c r="H1020">
-        <v>34377</v>
+        <v>34369</v>
       </c>
     </row>
     <row r="1021" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B1021" t="s">
         <v>25</v>
@@ -23770,13 +23802,16 @@
       <c r="E1021" t="s">
         <v>817</v>
       </c>
+      <c r="F1021" t="s">
+        <v>787</v>
+      </c>
       <c r="H1021">
-        <v>34367</v>
+        <v>34379</v>
       </c>
     </row>
     <row r="1022" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1022" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C1022" t="s">
         <v>742</v>
@@ -23787,13 +23822,19 @@
       <c r="E1022" t="s">
         <v>817</v>
       </c>
+      <c r="F1022" t="s">
+        <v>787</v>
+      </c>
+      <c r="G1022" t="s">
+        <v>823</v>
+      </c>
       <c r="H1022">
-        <v>34369</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1023" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B1023" t="s">
         <v>25</v>
@@ -23808,12 +23849,15 @@
         <v>817</v>
       </c>
       <c r="H1023">
-        <v>34379</v>
+        <v>34377</v>
       </c>
     </row>
     <row r="1024" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>811</v>
+      </c>
       <c r="B1024" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C1024" t="s">
         <v>742</v>
@@ -23825,15 +23869,18 @@
         <v>817</v>
       </c>
       <c r="F1024" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H1024">
-        <v>22579</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1025" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>811</v>
+      </c>
       <c r="B1025" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C1025" t="s">
         <v>742</v>
@@ -23845,15 +23892,15 @@
         <v>817</v>
       </c>
       <c r="H1025">
-        <v>22579</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1026" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>787</v>
+        <v>822</v>
       </c>
       <c r="B1026" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C1026" t="s">
         <v>742</v>
@@ -23865,13 +23912,10 @@
         <v>817</v>
       </c>
       <c r="H1026">
-        <v>24860</v>
+        <v>34367</v>
       </c>
     </row>
     <row r="1027" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1027" t="s">
-        <v>824</v>
-      </c>
       <c r="B1027" t="s">
         <v>25</v>
       </c>
@@ -23885,12 +23929,12 @@
         <v>817</v>
       </c>
       <c r="H1027">
-        <v>34702</v>
+        <v>34369</v>
       </c>
     </row>
     <row r="1028" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B1028" t="s">
         <v>25</v>
@@ -23905,12 +23949,12 @@
         <v>817</v>
       </c>
       <c r="H1028">
-        <v>34704</v>
+        <v>34379</v>
       </c>
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1029" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C1029" t="s">
         <v>742</v>
@@ -23921,16 +23965,16 @@
       <c r="E1029" t="s">
         <v>817</v>
       </c>
+      <c r="F1029" t="s">
+        <v>823</v>
+      </c>
       <c r="H1029">
-        <v>34676</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1030" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1030" t="s">
-        <v>826</v>
-      </c>
       <c r="B1030" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C1030" t="s">
         <v>742</v>
@@ -23942,12 +23986,15 @@
         <v>817</v>
       </c>
       <c r="H1030">
-        <v>34703</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1031" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>787</v>
+      </c>
       <c r="B1031" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C1031" t="s">
         <v>742</v>
@@ -23958,16 +24005,13 @@
       <c r="E1031" t="s">
         <v>817</v>
       </c>
-      <c r="F1031" t="s">
-        <v>826</v>
-      </c>
       <c r="H1031">
-        <v>22579</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1032" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>802</v>
+        <v>824</v>
       </c>
       <c r="B1032" t="s">
         <v>25</v>
@@ -23981,16 +24025,16 @@
       <c r="E1032" t="s">
         <v>817</v>
       </c>
-      <c r="F1032" t="s">
-        <v>787</v>
-      </c>
       <c r="H1032">
-        <v>34357</v>
+        <v>34702</v>
       </c>
     </row>
     <row r="1033" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>811</v>
+      </c>
       <c r="B1033" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C1033" t="s">
         <v>742</v>
@@ -24002,18 +24046,15 @@
         <v>817</v>
       </c>
       <c r="F1033" t="s">
-        <v>787</v>
-      </c>
-      <c r="G1033" t="s">
-        <v>802</v>
+        <v>824</v>
       </c>
       <c r="H1033">
-        <v>22579</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1034" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>802</v>
+        <v>825</v>
       </c>
       <c r="B1034" t="s">
         <v>25</v>
@@ -24028,12 +24069,12 @@
         <v>817</v>
       </c>
       <c r="H1034">
-        <v>34357</v>
+        <v>34704</v>
       </c>
     </row>
     <row r="1035" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1035" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C1035" t="s">
         <v>742</v>
@@ -24044,16 +24085,13 @@
       <c r="E1035" t="s">
         <v>817</v>
       </c>
-      <c r="F1035" t="s">
-        <v>802</v>
-      </c>
       <c r="H1035">
-        <v>22579</v>
+        <v>34676</v>
       </c>
     </row>
     <row r="1036" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>803</v>
+        <v>826</v>
       </c>
       <c r="B1036" t="s">
         <v>25</v>
@@ -24067,19 +24105,13 @@
       <c r="E1036" t="s">
         <v>817</v>
       </c>
-      <c r="F1036" t="s">
-        <v>787</v>
-      </c>
       <c r="H1036">
-        <v>34358</v>
+        <v>34703</v>
       </c>
     </row>
     <row r="1037" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1037" t="s">
-        <v>803</v>
-      </c>
       <c r="B1037" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C1037" t="s">
         <v>742</v>
@@ -24090,16 +24122,19 @@
       <c r="E1037" t="s">
         <v>817</v>
       </c>
+      <c r="F1037" t="s">
+        <v>826</v>
+      </c>
       <c r="H1037">
-        <v>34358</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1038" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>827</v>
+        <v>802</v>
       </c>
       <c r="B1038" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C1038" t="s">
         <v>742</v>
@@ -24110,16 +24145,16 @@
       <c r="E1038" t="s">
         <v>817</v>
       </c>
+      <c r="F1038" t="s">
+        <v>787</v>
+      </c>
       <c r="H1038">
-        <v>34373</v>
+        <v>34357</v>
       </c>
     </row>
     <row r="1039" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1039" t="s">
-        <v>828</v>
-      </c>
       <c r="B1039" t="s">
-        <v>779</v>
+        <v>9</v>
       </c>
       <c r="C1039" t="s">
         <v>742</v>
@@ -24130,16 +24165,22 @@
       <c r="E1039" t="s">
         <v>817</v>
       </c>
+      <c r="F1039" t="s">
+        <v>787</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>802</v>
+      </c>
       <c r="H1039">
-        <v>34356</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1040" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="B1040" t="s">
-        <v>781</v>
+        <v>25</v>
       </c>
       <c r="C1040" t="s">
         <v>742</v>
@@ -24150,19 +24191,13 @@
       <c r="E1040" t="s">
         <v>817</v>
       </c>
-      <c r="F1040" t="s">
-        <v>828</v>
-      </c>
       <c r="H1040">
-        <v>24860</v>
+        <v>34357</v>
       </c>
     </row>
     <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1041" t="s">
-        <v>829</v>
-      </c>
       <c r="B1041" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C1041" t="s">
         <v>742</v>
@@ -24174,18 +24209,15 @@
         <v>817</v>
       </c>
       <c r="F1041" t="s">
-        <v>828</v>
-      </c>
-      <c r="G1041" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="H1041">
-        <v>34378</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1042" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>830</v>
+        <v>803</v>
       </c>
       <c r="B1042" t="s">
         <v>25</v>
@@ -24200,16 +24232,16 @@
         <v>817</v>
       </c>
       <c r="F1042" t="s">
-        <v>828</v>
-      </c>
-      <c r="G1042" t="s">
         <v>787</v>
       </c>
       <c r="H1042">
-        <v>34368</v>
+        <v>34358</v>
       </c>
     </row>
     <row r="1043" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>803</v>
+      </c>
       <c r="B1043" t="s">
         <v>25</v>
       </c>
@@ -24222,22 +24254,16 @@
       <c r="E1043" t="s">
         <v>817</v>
       </c>
-      <c r="F1043" t="s">
-        <v>828</v>
-      </c>
-      <c r="G1043" t="s">
-        <v>787</v>
-      </c>
       <c r="H1043">
-        <v>34370</v>
+        <v>34358</v>
       </c>
     </row>
     <row r="1044" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B1044" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C1044" t="s">
         <v>742</v>
@@ -24248,19 +24274,16 @@
       <c r="E1044" t="s">
         <v>817</v>
       </c>
-      <c r="F1044" t="s">
+      <c r="H1044">
+        <v>34373</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
         <v>828</v>
       </c>
-      <c r="G1044" t="s">
-        <v>787</v>
-      </c>
-      <c r="H1044">
-        <v>34380</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1045" t="s">
-        <v>9</v>
+        <v>779</v>
       </c>
       <c r="C1045" t="s">
         <v>742</v>
@@ -24271,22 +24294,16 @@
       <c r="E1045" t="s">
         <v>817</v>
       </c>
-      <c r="F1045" t="s">
-        <v>828</v>
-      </c>
-      <c r="G1045" t="s">
-        <v>787</v>
-      </c>
       <c r="H1045">
-        <v>22579</v>
+        <v>34356</v>
       </c>
     </row>
     <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
       <c r="B1046" t="s">
-        <v>25</v>
+        <v>781</v>
       </c>
       <c r="C1046" t="s">
         <v>742</v>
@@ -24300,11 +24317,8 @@
       <c r="F1046" t="s">
         <v>828</v>
       </c>
-      <c r="G1046" t="s">
-        <v>787</v>
-      </c>
       <c r="H1046">
-        <v>34360</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1047" spans="1:8" x14ac:dyDescent="0.25">
@@ -24324,6 +24338,9 @@
         <v>817</v>
       </c>
       <c r="F1047" t="s">
+        <v>828</v>
+      </c>
+      <c r="G1047" t="s">
         <v>787</v>
       </c>
       <c r="H1047">
@@ -24332,10 +24349,10 @@
     </row>
     <row r="1048" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="B1048" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C1048" t="s">
         <v>742</v>
@@ -24347,13 +24364,19 @@
         <v>817</v>
       </c>
       <c r="F1048" t="s">
+        <v>828</v>
+      </c>
+      <c r="G1048" t="s">
         <v>787</v>
       </c>
       <c r="H1048">
-        <v>34368</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1049" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>830</v>
+      </c>
       <c r="B1049" t="s">
         <v>25</v>
       </c>
@@ -24367,16 +24390,16 @@
         <v>817</v>
       </c>
       <c r="F1049" t="s">
+        <v>828</v>
+      </c>
+      <c r="G1049" t="s">
         <v>787</v>
       </c>
       <c r="H1049">
-        <v>34370</v>
+        <v>34368</v>
       </c>
     </row>
     <row r="1050" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1050" t="s">
-        <v>831</v>
-      </c>
       <c r="B1050" t="s">
         <v>25</v>
       </c>
@@ -24390,15 +24413,21 @@
         <v>817</v>
       </c>
       <c r="F1050" t="s">
+        <v>828</v>
+      </c>
+      <c r="G1050" t="s">
         <v>787</v>
       </c>
       <c r="H1050">
-        <v>34380</v>
+        <v>34370</v>
       </c>
     </row>
     <row r="1051" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>831</v>
+      </c>
       <c r="B1051" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C1051" t="s">
         <v>742</v>
@@ -24410,21 +24439,18 @@
         <v>817</v>
       </c>
       <c r="F1051" t="s">
+        <v>828</v>
+      </c>
+      <c r="G1051" t="s">
         <v>787</v>
       </c>
-      <c r="G1051" t="s">
-        <v>831</v>
-      </c>
       <c r="H1051">
-        <v>22579</v>
+        <v>34380</v>
       </c>
     </row>
     <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1052" t="s">
-        <v>829</v>
-      </c>
       <c r="B1052" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C1052" t="s">
         <v>742</v>
@@ -24435,13 +24461,19 @@
       <c r="E1052" t="s">
         <v>817</v>
       </c>
+      <c r="F1052" t="s">
+        <v>828</v>
+      </c>
+      <c r="G1052" t="s">
+        <v>787</v>
+      </c>
       <c r="H1052">
-        <v>34378</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1053" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="B1053" t="s">
         <v>25</v>
@@ -24455,11 +24487,20 @@
       <c r="E1053" t="s">
         <v>817</v>
       </c>
+      <c r="F1053" t="s">
+        <v>828</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>787</v>
+      </c>
       <c r="H1053">
-        <v>34368</v>
+        <v>34360</v>
       </c>
     </row>
     <row r="1054" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>829</v>
+      </c>
       <c r="B1054" t="s">
         <v>25</v>
       </c>
@@ -24472,16 +24513,19 @@
       <c r="E1054" t="s">
         <v>817</v>
       </c>
+      <c r="F1054" t="s">
+        <v>787</v>
+      </c>
       <c r="H1054">
-        <v>34370</v>
+        <v>34378</v>
       </c>
     </row>
     <row r="1055" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="B1055" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C1055" t="s">
         <v>742</v>
@@ -24492,13 +24536,22 @@
       <c r="E1055" t="s">
         <v>817</v>
       </c>
+      <c r="F1055" t="s">
+        <v>787</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>829</v>
+      </c>
       <c r="H1055">
-        <v>34380</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>830</v>
+      </c>
       <c r="B1056" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C1056" t="s">
         <v>742</v>
@@ -24510,16 +24563,13 @@
         <v>817</v>
       </c>
       <c r="F1056" t="s">
-        <v>831</v>
+        <v>787</v>
       </c>
       <c r="H1056">
-        <v>22579</v>
+        <v>34368</v>
       </c>
     </row>
     <row r="1057" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1057" t="s">
-        <v>810</v>
-      </c>
       <c r="B1057" t="s">
         <v>25</v>
       </c>
@@ -24536,12 +24586,12 @@
         <v>787</v>
       </c>
       <c r="H1057">
-        <v>34360</v>
+        <v>34370</v>
       </c>
     </row>
     <row r="1058" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>810</v>
+        <v>831</v>
       </c>
       <c r="B1058" t="s">
         <v>25</v>
@@ -24555,27 +24605,39 @@
       <c r="E1058" t="s">
         <v>817</v>
       </c>
+      <c r="F1058" t="s">
+        <v>787</v>
+      </c>
       <c r="H1058">
-        <v>34360</v>
+        <v>34380</v>
       </c>
     </row>
     <row r="1059" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1059" t="s">
-        <v>832</v>
-      </c>
       <c r="B1059" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C1059" t="s">
         <v>742</v>
       </c>
+      <c r="D1059" t="s">
+        <v>811</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>817</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>787</v>
+      </c>
+      <c r="G1059" t="s">
+        <v>831</v>
+      </c>
       <c r="H1059">
-        <v>18244</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1060" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B1060" t="s">
         <v>25</v>
@@ -24584,32 +24646,41 @@
         <v>742</v>
       </c>
       <c r="D1060" t="s">
-        <v>832</v>
+        <v>811</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>817</v>
       </c>
       <c r="H1060">
-        <v>19094</v>
+        <v>34378</v>
       </c>
     </row>
     <row r="1061" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="B1061" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C1061" t="s">
         <v>742</v>
       </c>
       <c r="D1061" t="s">
-        <v>832</v>
+        <v>811</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>817</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>829</v>
       </c>
       <c r="H1061">
-        <v>19139</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1062" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B1062" t="s">
         <v>25</v>
@@ -24618,89 +24689,98 @@
         <v>742</v>
       </c>
       <c r="D1062" t="s">
-        <v>832</v>
+        <v>811</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>817</v>
       </c>
       <c r="H1062">
-        <v>19140</v>
+        <v>34368</v>
       </c>
     </row>
     <row r="1063" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1063" t="s">
-        <v>836</v>
-      </c>
       <c r="B1063" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1063" t="s">
         <v>742</v>
       </c>
+      <c r="D1063" t="s">
+        <v>811</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>817</v>
+      </c>
       <c r="H1063">
-        <v>18147</v>
+        <v>34370</v>
       </c>
     </row>
     <row r="1064" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B1064" t="s">
-        <v>777</v>
+        <v>25</v>
       </c>
       <c r="C1064" t="s">
         <v>742</v>
       </c>
       <c r="D1064" t="s">
-        <v>836</v>
+        <v>811</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>817</v>
       </c>
       <c r="H1064">
-        <v>18791</v>
+        <v>34380</v>
       </c>
     </row>
     <row r="1065" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1065" t="s">
-        <v>838</v>
-      </c>
       <c r="B1065" t="s">
-        <v>779</v>
+        <v>9</v>
       </c>
       <c r="C1065" t="s">
         <v>742</v>
       </c>
       <c r="D1065" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="E1065" t="s">
-        <v>837</v>
+        <v>817</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>831</v>
       </c>
       <c r="H1065">
-        <v>18198</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1066" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>839</v>
+        <v>810</v>
       </c>
       <c r="B1066" t="s">
-        <v>781</v>
+        <v>25</v>
       </c>
       <c r="C1066" t="s">
         <v>742</v>
       </c>
       <c r="D1066" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="E1066" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
       <c r="F1066" t="s">
-        <v>838</v>
+        <v>787</v>
       </c>
       <c r="H1066">
-        <v>24288</v>
+        <v>34360</v>
       </c>
     </row>
     <row r="1067" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="B1067" t="s">
         <v>25</v>
@@ -24709,47 +24789,32 @@
         <v>742</v>
       </c>
       <c r="D1067" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="E1067" t="s">
-        <v>837</v>
-      </c>
-      <c r="F1067" t="s">
-        <v>838</v>
-      </c>
-      <c r="G1067" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="H1067">
-        <v>24289</v>
+        <v>34360</v>
       </c>
     </row>
     <row r="1068" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="B1068" t="s">
-        <v>781</v>
+        <v>22</v>
       </c>
       <c r="C1068" t="s">
         <v>742</v>
       </c>
-      <c r="D1068" t="s">
-        <v>836</v>
-      </c>
-      <c r="E1068" t="s">
-        <v>837</v>
-      </c>
-      <c r="F1068" t="s">
-        <v>838</v>
-      </c>
       <c r="H1068">
-        <v>18209</v>
+        <v>18244</v>
       </c>
     </row>
     <row r="1069" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="B1069" t="s">
         <v>25</v>
@@ -24758,24 +24823,15 @@
         <v>742</v>
       </c>
       <c r="D1069" t="s">
-        <v>836</v>
-      </c>
-      <c r="E1069" t="s">
-        <v>837</v>
-      </c>
-      <c r="F1069" t="s">
-        <v>838</v>
-      </c>
-      <c r="G1069" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="H1069">
-        <v>18166</v>
+        <v>19094</v>
       </c>
     </row>
     <row r="1070" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="B1070" t="s">
         <v>25</v>
@@ -24784,24 +24840,15 @@
         <v>742</v>
       </c>
       <c r="D1070" t="s">
-        <v>836</v>
-      </c>
-      <c r="E1070" t="s">
-        <v>837</v>
-      </c>
-      <c r="F1070" t="s">
-        <v>838</v>
-      </c>
-      <c r="G1070" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="H1070">
-        <v>18169</v>
+        <v>19139</v>
       </c>
     </row>
     <row r="1071" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="B1071" t="s">
         <v>25</v>
@@ -24810,53 +24857,32 @@
         <v>742</v>
       </c>
       <c r="D1071" t="s">
-        <v>836</v>
-      </c>
-      <c r="E1071" t="s">
-        <v>837</v>
-      </c>
-      <c r="F1071" t="s">
-        <v>838</v>
-      </c>
-      <c r="G1071" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="H1071">
-        <v>18168</v>
+        <v>19140</v>
       </c>
     </row>
     <row r="1072" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="B1072" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1072" t="s">
         <v>742</v>
       </c>
-      <c r="D1072" t="s">
-        <v>836</v>
-      </c>
-      <c r="E1072" t="s">
-        <v>837</v>
-      </c>
-      <c r="F1072" t="s">
-        <v>838</v>
-      </c>
-      <c r="G1072" t="s">
-        <v>841</v>
-      </c>
       <c r="H1072">
-        <v>18170</v>
+        <v>18147</v>
       </c>
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="B1073" t="s">
-        <v>25</v>
+        <v>777</v>
       </c>
       <c r="C1073" t="s">
         <v>742</v>
@@ -24864,73 +24890,82 @@
       <c r="D1073" t="s">
         <v>836</v>
       </c>
-      <c r="E1073" t="s">
-        <v>837</v>
-      </c>
-      <c r="F1073" t="s">
-        <v>838</v>
-      </c>
-      <c r="G1073" t="s">
-        <v>841</v>
-      </c>
       <c r="H1073">
-        <v>18171</v>
+        <v>18791</v>
       </c>
     </row>
     <row r="1074" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="B1074" t="s">
-        <v>22</v>
+        <v>779</v>
       </c>
       <c r="C1074" t="s">
         <v>742</v>
       </c>
+      <c r="D1074" t="s">
+        <v>836</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>837</v>
+      </c>
       <c r="H1074">
-        <v>22227</v>
+        <v>18198</v>
       </c>
     </row>
     <row r="1075" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="B1075" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C1075" t="s">
         <v>742</v>
       </c>
       <c r="D1075" t="s">
-        <v>847</v>
+        <v>836</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>837</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>838</v>
       </c>
       <c r="H1075">
-        <v>24532</v>
+        <v>24288</v>
       </c>
     </row>
     <row r="1076" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="B1076" t="s">
-        <v>779</v>
+        <v>25</v>
       </c>
       <c r="C1076" t="s">
         <v>742</v>
       </c>
       <c r="D1076" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="E1076" t="s">
-        <v>848</v>
+        <v>837</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>838</v>
+      </c>
+      <c r="G1076" t="s">
+        <v>839</v>
       </c>
       <c r="H1076">
-        <v>18196</v>
+        <v>24289</v>
       </c>
     </row>
     <row r="1077" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>652</v>
+        <v>841</v>
       </c>
       <c r="B1077" t="s">
         <v>781</v>
@@ -24939,21 +24974,21 @@
         <v>742</v>
       </c>
       <c r="D1077" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="E1077" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="F1077" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="H1077">
-        <v>12499</v>
+        <v>18209</v>
       </c>
     </row>
     <row r="1078" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B1078" t="s">
         <v>25</v>
@@ -24962,47 +24997,50 @@
         <v>742</v>
       </c>
       <c r="D1078" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="E1078" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="F1078" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="G1078" t="s">
-        <v>652</v>
+        <v>841</v>
       </c>
       <c r="H1078">
-        <v>18161</v>
+        <v>18166</v>
       </c>
     </row>
     <row r="1079" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>562</v>
+        <v>843</v>
       </c>
       <c r="B1079" t="s">
-        <v>781</v>
+        <v>25</v>
       </c>
       <c r="C1079" t="s">
         <v>742</v>
       </c>
       <c r="D1079" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="E1079" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="F1079" t="s">
-        <v>849</v>
+        <v>838</v>
+      </c>
+      <c r="G1079" t="s">
+        <v>841</v>
       </c>
       <c r="H1079">
-        <v>27729</v>
+        <v>18169</v>
       </c>
     </row>
     <row r="1080" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="B1080" t="s">
         <v>25</v>
@@ -25011,47 +25049,50 @@
         <v>742</v>
       </c>
       <c r="D1080" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="E1080" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="F1080" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="G1080" t="s">
-        <v>562</v>
+        <v>841</v>
       </c>
       <c r="H1080">
-        <v>27728</v>
+        <v>18168</v>
       </c>
     </row>
     <row r="1081" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>563</v>
+        <v>845</v>
       </c>
       <c r="B1081" t="s">
-        <v>781</v>
+        <v>25</v>
       </c>
       <c r="C1081" t="s">
         <v>742</v>
       </c>
       <c r="D1081" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="E1081" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="F1081" t="s">
-        <v>849</v>
+        <v>838</v>
+      </c>
+      <c r="G1081" t="s">
+        <v>841</v>
       </c>
       <c r="H1081">
-        <v>33394</v>
+        <v>18170</v>
       </c>
     </row>
     <row r="1082" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B1082" t="s">
         <v>25</v>
@@ -25060,50 +25101,41 @@
         <v>742</v>
       </c>
       <c r="D1082" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="E1082" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="F1082" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="G1082" t="s">
-        <v>563</v>
+        <v>841</v>
       </c>
       <c r="H1082">
-        <v>33393</v>
+        <v>18171</v>
       </c>
     </row>
     <row r="1083" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B1083" t="s">
-        <v>781</v>
+        <v>22</v>
       </c>
       <c r="C1083" t="s">
         <v>742</v>
       </c>
-      <c r="D1083" t="s">
-        <v>847</v>
-      </c>
-      <c r="E1083" t="s">
-        <v>848</v>
-      </c>
-      <c r="F1083" t="s">
-        <v>849</v>
-      </c>
       <c r="H1083">
-        <v>19161</v>
+        <v>22227</v>
       </c>
     </row>
     <row r="1084" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B1084" t="s">
-        <v>25</v>
+        <v>777</v>
       </c>
       <c r="C1084" t="s">
         <v>742</v>
@@ -25111,50 +25143,56 @@
       <c r="D1084" t="s">
         <v>847</v>
       </c>
-      <c r="E1084" t="s">
-        <v>848</v>
-      </c>
-      <c r="F1084" t="s">
-        <v>849</v>
-      </c>
-      <c r="G1084" t="s">
-        <v>853</v>
-      </c>
       <c r="H1084">
-        <v>19161</v>
+        <v>24532</v>
       </c>
     </row>
     <row r="1085" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>644</v>
+        <v>849</v>
       </c>
       <c r="B1085" t="s">
-        <v>9</v>
+        <v>779</v>
       </c>
       <c r="C1085" t="s">
         <v>742</v>
       </c>
+      <c r="D1085" t="s">
+        <v>847</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>848</v>
+      </c>
       <c r="H1085">
-        <v>106</v>
+        <v>18196</v>
       </c>
     </row>
     <row r="1086" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>854</v>
+        <v>652</v>
       </c>
       <c r="B1086" t="s">
-        <v>22</v>
+        <v>781</v>
       </c>
       <c r="C1086" t="s">
         <v>742</v>
       </c>
+      <c r="D1086" t="s">
+        <v>847</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>848</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>849</v>
+      </c>
       <c r="H1086">
-        <v>20802</v>
+        <v>12499</v>
       </c>
     </row>
     <row r="1087" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B1087" t="s">
         <v>25</v>
@@ -25163,69 +25201,96 @@
         <v>742</v>
       </c>
       <c r="D1087" t="s">
-        <v>854</v>
+        <v>847</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>848</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>849</v>
+      </c>
+      <c r="G1087" t="s">
+        <v>652</v>
       </c>
       <c r="H1087">
-        <v>24423</v>
+        <v>18161</v>
       </c>
     </row>
     <row r="1088" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>856</v>
+        <v>562</v>
       </c>
       <c r="B1088" t="s">
-        <v>25</v>
+        <v>781</v>
       </c>
       <c r="C1088" t="s">
         <v>742</v>
       </c>
       <c r="D1088" t="s">
-        <v>854</v>
+        <v>847</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>848</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>849</v>
       </c>
       <c r="H1088">
-        <v>33755</v>
+        <v>27729</v>
       </c>
     </row>
     <row r="1089" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>630</v>
+        <v>851</v>
       </c>
       <c r="B1089" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C1089" t="s">
         <v>742</v>
       </c>
       <c r="D1089" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="E1089" t="s">
-        <v>856</v>
+        <v>848</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>849</v>
+      </c>
+      <c r="G1089" t="s">
+        <v>562</v>
       </c>
       <c r="H1089">
-        <v>33756</v>
+        <v>27728</v>
       </c>
     </row>
     <row r="1090" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
-        <v>857</v>
+        <v>563</v>
       </c>
       <c r="B1090" t="s">
-        <v>25</v>
+        <v>781</v>
       </c>
       <c r="C1090" t="s">
         <v>742</v>
       </c>
       <c r="D1090" t="s">
-        <v>854</v>
+        <v>847</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>848</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>849</v>
       </c>
       <c r="H1090">
-        <v>24850</v>
+        <v>33394</v>
       </c>
     </row>
     <row r="1091" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B1091" t="s">
         <v>25</v>
@@ -25234,32 +25299,47 @@
         <v>742</v>
       </c>
       <c r="D1091" t="s">
-        <v>854</v>
+        <v>847</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>848</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>849</v>
+      </c>
+      <c r="G1091" t="s">
+        <v>563</v>
       </c>
       <c r="H1091">
-        <v>25368</v>
+        <v>33393</v>
       </c>
     </row>
     <row r="1092" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B1092" t="s">
-        <v>25</v>
+        <v>781</v>
       </c>
       <c r="C1092" t="s">
         <v>742</v>
       </c>
       <c r="D1092" t="s">
-        <v>854</v>
+        <v>847</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>848</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>849</v>
       </c>
       <c r="H1092">
-        <v>24207</v>
+        <v>19161</v>
       </c>
     </row>
     <row r="1093" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="B1093" t="s">
         <v>25</v>
@@ -25268,49 +25348,52 @@
         <v>742</v>
       </c>
       <c r="D1093" t="s">
-        <v>854</v>
+        <v>847</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>848</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>849</v>
+      </c>
+      <c r="G1093" t="s">
+        <v>853</v>
       </c>
       <c r="H1093">
-        <v>24952</v>
+        <v>19161</v>
       </c>
     </row>
     <row r="1094" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>861</v>
+        <v>644</v>
       </c>
       <c r="B1094" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C1094" t="s">
         <v>742</v>
       </c>
-      <c r="D1094" t="s">
+      <c r="H1094">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
         <v>854</v>
       </c>
-      <c r="H1094">
-        <v>24424</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1095" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C1095" t="s">
         <v>742</v>
       </c>
-      <c r="D1095" t="s">
-        <v>854</v>
-      </c>
-      <c r="E1095" t="s">
-        <v>861</v>
-      </c>
       <c r="H1095">
-        <v>24421</v>
+        <v>20802</v>
       </c>
     </row>
     <row r="1096" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="B1096" t="s">
         <v>25</v>
@@ -25322,12 +25405,12 @@
         <v>854</v>
       </c>
       <c r="H1096">
-        <v>22547</v>
+        <v>24423</v>
       </c>
     </row>
     <row r="1097" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="B1097" t="s">
         <v>25</v>
@@ -25339,15 +25422,15 @@
         <v>854</v>
       </c>
       <c r="H1097">
-        <v>20511</v>
+        <v>33755</v>
       </c>
     </row>
     <row r="1098" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>864</v>
+        <v>630</v>
       </c>
       <c r="B1098" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C1098" t="s">
         <v>742</v>
@@ -25355,16 +25438,19 @@
       <c r="D1098" t="s">
         <v>854</v>
       </c>
+      <c r="E1098" t="s">
+        <v>856</v>
+      </c>
       <c r="H1098">
-        <v>34138</v>
+        <v>33756</v>
       </c>
     </row>
     <row r="1099" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="B1099" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C1099" t="s">
         <v>742</v>
@@ -25372,16 +25458,13 @@
       <c r="D1099" t="s">
         <v>854</v>
       </c>
-      <c r="E1099" t="s">
-        <v>864</v>
-      </c>
       <c r="H1099">
-        <v>34139</v>
+        <v>24850</v>
       </c>
     </row>
     <row r="1100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="B1100" t="s">
         <v>25</v>
@@ -25393,15 +25476,15 @@
         <v>854</v>
       </c>
       <c r="H1100">
-        <v>27331</v>
+        <v>25368</v>
       </c>
     </row>
     <row r="1101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="B1101" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C1101" t="s">
         <v>742</v>
@@ -25409,19 +25492,16 @@
       <c r="D1101" t="s">
         <v>854</v>
       </c>
-      <c r="E1101" t="s">
-        <v>866</v>
-      </c>
       <c r="H1101">
-        <v>27363</v>
+        <v>24207</v>
       </c>
     </row>
     <row r="1102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="B1102" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C1102" t="s">
         <v>742</v>
@@ -25429,19 +25509,16 @@
       <c r="D1102" t="s">
         <v>854</v>
       </c>
-      <c r="E1102" t="s">
-        <v>866</v>
-      </c>
       <c r="H1102">
-        <v>27364</v>
+        <v>24952</v>
       </c>
     </row>
     <row r="1103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B1103" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C1103" t="s">
         <v>742</v>
@@ -25449,17 +25526,11 @@
       <c r="D1103" t="s">
         <v>854</v>
       </c>
-      <c r="E1103" t="s">
-        <v>866</v>
-      </c>
       <c r="H1103">
-        <v>27365</v>
+        <v>24424</v>
       </c>
     </row>
     <row r="1104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1104" t="s">
-        <v>870</v>
-      </c>
       <c r="B1104" t="s">
         <v>9</v>
       </c>
@@ -25470,15 +25541,15 @@
         <v>854</v>
       </c>
       <c r="E1104" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="H1104">
-        <v>27366</v>
+        <v>24421</v>
       </c>
     </row>
     <row r="1105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="B1105" t="s">
         <v>25</v>
@@ -25490,12 +25561,12 @@
         <v>854</v>
       </c>
       <c r="H1105">
-        <v>18158</v>
+        <v>22547</v>
       </c>
     </row>
     <row r="1106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="B1106" t="s">
         <v>25</v>
@@ -25507,43 +25578,49 @@
         <v>854</v>
       </c>
       <c r="H1106">
-        <v>26945</v>
+        <v>20511</v>
       </c>
     </row>
     <row r="1107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="B1107" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1107" t="s">
         <v>742</v>
       </c>
+      <c r="D1107" t="s">
+        <v>854</v>
+      </c>
       <c r="H1107">
-        <v>27265</v>
+        <v>34138</v>
       </c>
     </row>
     <row r="1108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="B1108" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C1108" t="s">
         <v>742</v>
       </c>
       <c r="D1108" t="s">
-        <v>873</v>
+        <v>854</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>864</v>
       </c>
       <c r="H1108">
-        <v>27266</v>
+        <v>34139</v>
       </c>
     </row>
     <row r="1109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B1109" t="s">
         <v>25</v>
@@ -25552,32 +25629,35 @@
         <v>742</v>
       </c>
       <c r="D1109" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="H1109">
-        <v>27267</v>
+        <v>27331</v>
       </c>
     </row>
     <row r="1110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="B1110" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C1110" t="s">
         <v>742</v>
       </c>
       <c r="D1110" t="s">
-        <v>873</v>
+        <v>854</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>866</v>
       </c>
       <c r="H1110">
-        <v>27268</v>
+        <v>27363</v>
       </c>
     </row>
     <row r="1111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
-        <v>650</v>
+        <v>868</v>
       </c>
       <c r="B1111" t="s">
         <v>9</v>
@@ -25585,183 +25665,186 @@
       <c r="C1111" t="s">
         <v>742</v>
       </c>
+      <c r="D1111" t="s">
+        <v>854</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>866</v>
+      </c>
       <c r="H1111">
-        <v>11323</v>
+        <v>27364</v>
       </c>
     </row>
     <row r="1112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="B1112" t="s">
-        <v>878</v>
+        <v>9</v>
       </c>
       <c r="C1112" t="s">
-        <v>879</v>
+        <v>742</v>
       </c>
       <c r="D1112" t="s">
-        <v>879</v>
+        <v>854</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>866</v>
       </c>
       <c r="H1112">
-        <v>22644</v>
+        <v>27365</v>
       </c>
     </row>
     <row r="1113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="B1113" t="s">
-        <v>878</v>
+        <v>9</v>
       </c>
       <c r="C1113" t="s">
-        <v>879</v>
+        <v>742</v>
       </c>
       <c r="D1113" t="s">
-        <v>879</v>
+        <v>854</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>866</v>
       </c>
       <c r="H1113">
-        <v>17991</v>
+        <v>27366</v>
       </c>
     </row>
     <row r="1114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="B1114" t="s">
-        <v>878</v>
+        <v>25</v>
       </c>
       <c r="C1114" t="s">
-        <v>879</v>
+        <v>742</v>
       </c>
       <c r="D1114" t="s">
-        <v>879</v>
+        <v>854</v>
       </c>
       <c r="H1114">
-        <v>17963</v>
+        <v>18158</v>
       </c>
     </row>
     <row r="1115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="B1115" t="s">
-        <v>878</v>
+        <v>25</v>
       </c>
       <c r="C1115" t="s">
-        <v>879</v>
+        <v>742</v>
       </c>
       <c r="D1115" t="s">
-        <v>879</v>
+        <v>854</v>
       </c>
       <c r="H1115">
-        <v>22645</v>
+        <v>26945</v>
       </c>
     </row>
     <row r="1116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="B1116" t="s">
-        <v>878</v>
+        <v>22</v>
       </c>
       <c r="C1116" t="s">
-        <v>879</v>
-      </c>
-      <c r="D1116" t="s">
-        <v>879</v>
+        <v>742</v>
       </c>
       <c r="H1116">
-        <v>22646</v>
+        <v>27265</v>
       </c>
     </row>
     <row r="1117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="B1117" t="s">
-        <v>878</v>
+        <v>25</v>
       </c>
       <c r="C1117" t="s">
-        <v>879</v>
+        <v>742</v>
       </c>
       <c r="D1117" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="H1117">
-        <v>13956</v>
+        <v>27266</v>
       </c>
     </row>
     <row r="1118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="B1118" t="s">
-        <v>878</v>
+        <v>25</v>
       </c>
       <c r="C1118" t="s">
-        <v>879</v>
+        <v>742</v>
       </c>
       <c r="D1118" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="H1118">
-        <v>22673</v>
+        <v>27267</v>
       </c>
     </row>
     <row r="1119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="B1119" t="s">
-        <v>878</v>
+        <v>25</v>
       </c>
       <c r="C1119" t="s">
-        <v>879</v>
+        <v>742</v>
       </c>
       <c r="D1119" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="H1119">
-        <v>17943</v>
+        <v>27268</v>
       </c>
     </row>
     <row r="1120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
-        <v>887</v>
+        <v>625</v>
       </c>
       <c r="B1120" t="s">
-        <v>878</v>
+        <v>9</v>
       </c>
       <c r="C1120" t="s">
-        <v>879</v>
-      </c>
-      <c r="D1120" t="s">
-        <v>879</v>
+        <v>742</v>
       </c>
       <c r="H1120">
-        <v>22647</v>
+        <v>27302</v>
       </c>
     </row>
     <row r="1121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
-        <v>888</v>
+        <v>650</v>
       </c>
       <c r="B1121" t="s">
-        <v>878</v>
+        <v>9</v>
       </c>
       <c r="C1121" t="s">
-        <v>879</v>
-      </c>
-      <c r="D1121" t="s">
-        <v>879</v>
+        <v>742</v>
       </c>
       <c r="H1121">
-        <v>22648</v>
+        <v>11323</v>
       </c>
     </row>
     <row r="1122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="B1122" t="s">
         <v>878</v>
@@ -25773,12 +25856,12 @@
         <v>879</v>
       </c>
       <c r="H1122">
-        <v>22649</v>
+        <v>22644</v>
       </c>
     </row>
     <row r="1123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="B1123" t="s">
         <v>878</v>
@@ -25790,12 +25873,12 @@
         <v>879</v>
       </c>
       <c r="H1123">
-        <v>22674</v>
+        <v>17991</v>
       </c>
     </row>
     <row r="1124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="B1124" t="s">
         <v>878</v>
@@ -25807,12 +25890,12 @@
         <v>879</v>
       </c>
       <c r="H1124">
-        <v>22650</v>
+        <v>17963</v>
       </c>
     </row>
     <row r="1125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="B1125" t="s">
         <v>878</v>
@@ -25824,12 +25907,12 @@
         <v>879</v>
       </c>
       <c r="H1125">
-        <v>22651</v>
+        <v>22645</v>
       </c>
     </row>
     <row r="1126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="B1126" t="s">
         <v>878</v>
@@ -25841,12 +25924,12 @@
         <v>879</v>
       </c>
       <c r="H1126">
-        <v>22652</v>
+        <v>22646</v>
       </c>
     </row>
     <row r="1127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B1127" t="s">
         <v>878</v>
@@ -25858,12 +25941,12 @@
         <v>879</v>
       </c>
       <c r="H1127">
-        <v>22653</v>
+        <v>13956</v>
       </c>
     </row>
     <row r="1128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="B1128" t="s">
         <v>878</v>
@@ -25875,12 +25958,12 @@
         <v>879</v>
       </c>
       <c r="H1128">
-        <v>22654</v>
+        <v>22673</v>
       </c>
     </row>
     <row r="1129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="B1129" t="s">
         <v>878</v>
@@ -25892,12 +25975,12 @@
         <v>879</v>
       </c>
       <c r="H1129">
-        <v>22655</v>
+        <v>17943</v>
       </c>
     </row>
     <row r="1130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="B1130" t="s">
         <v>878</v>
@@ -25909,12 +25992,12 @@
         <v>879</v>
       </c>
       <c r="H1130">
-        <v>22656</v>
+        <v>22647</v>
       </c>
     </row>
     <row r="1131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="B1131" t="s">
         <v>878</v>
@@ -25926,12 +26009,12 @@
         <v>879</v>
       </c>
       <c r="H1131">
-        <v>22657</v>
+        <v>22648</v>
       </c>
     </row>
     <row r="1132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="B1132" t="s">
         <v>878</v>
@@ -25943,12 +26026,12 @@
         <v>879</v>
       </c>
       <c r="H1132">
-        <v>22658</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="1133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B1133" t="s">
         <v>878</v>
@@ -25960,12 +26043,12 @@
         <v>879</v>
       </c>
       <c r="H1133">
-        <v>22659</v>
+        <v>22674</v>
       </c>
     </row>
     <row r="1134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="B1134" t="s">
         <v>878</v>
@@ -25977,12 +26060,12 @@
         <v>879</v>
       </c>
       <c r="H1134">
-        <v>22660</v>
+        <v>22650</v>
       </c>
     </row>
     <row r="1135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="B1135" t="s">
         <v>878</v>
@@ -25994,12 +26077,12 @@
         <v>879</v>
       </c>
       <c r="H1135">
-        <v>22661</v>
+        <v>22651</v>
       </c>
     </row>
     <row r="1136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="B1136" t="s">
         <v>878</v>
@@ -26011,12 +26094,12 @@
         <v>879</v>
       </c>
       <c r="H1136">
-        <v>22662</v>
+        <v>22652</v>
       </c>
     </row>
     <row r="1137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="B1137" t="s">
         <v>878</v>
@@ -26028,12 +26111,12 @@
         <v>879</v>
       </c>
       <c r="H1137">
-        <v>22663</v>
+        <v>22653</v>
       </c>
     </row>
     <row r="1138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="B1138" t="s">
         <v>878</v>
@@ -26045,12 +26128,12 @@
         <v>879</v>
       </c>
       <c r="H1138">
-        <v>22664</v>
+        <v>22654</v>
       </c>
     </row>
     <row r="1139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="B1139" t="s">
         <v>878</v>
@@ -26062,12 +26145,12 @@
         <v>879</v>
       </c>
       <c r="H1139">
-        <v>22665</v>
+        <v>22655</v>
       </c>
     </row>
     <row r="1140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="B1140" t="s">
         <v>878</v>
@@ -26079,12 +26162,12 @@
         <v>879</v>
       </c>
       <c r="H1140">
-        <v>22666</v>
+        <v>22656</v>
       </c>
     </row>
     <row r="1141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="B1141" t="s">
         <v>878</v>
@@ -26096,12 +26179,12 @@
         <v>879</v>
       </c>
       <c r="H1141">
-        <v>22667</v>
+        <v>22657</v>
       </c>
     </row>
     <row r="1142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="B1142" t="s">
         <v>878</v>
@@ -26113,12 +26196,12 @@
         <v>879</v>
       </c>
       <c r="H1142">
-        <v>22668</v>
+        <v>22658</v>
       </c>
     </row>
     <row r="1143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="B1143" t="s">
         <v>878</v>
@@ -26130,12 +26213,12 @@
         <v>879</v>
       </c>
       <c r="H1143">
-        <v>22669</v>
+        <v>22659</v>
       </c>
     </row>
     <row r="1144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="B1144" t="s">
         <v>878</v>
@@ -26147,12 +26230,12 @@
         <v>879</v>
       </c>
       <c r="H1144">
-        <v>22670</v>
+        <v>22660</v>
       </c>
     </row>
     <row r="1145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="B1145" t="s">
         <v>878</v>
@@ -26164,12 +26247,12 @@
         <v>879</v>
       </c>
       <c r="H1145">
-        <v>22671</v>
+        <v>22661</v>
       </c>
     </row>
     <row r="1146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="B1146" t="s">
         <v>878</v>
@@ -26181,12 +26264,12 @@
         <v>879</v>
       </c>
       <c r="H1146">
-        <v>22672</v>
+        <v>22662</v>
       </c>
     </row>
     <row r="1147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="B1147" t="s">
         <v>878</v>
@@ -26198,12 +26281,12 @@
         <v>879</v>
       </c>
       <c r="H1147">
-        <v>22675</v>
+        <v>22663</v>
       </c>
     </row>
     <row r="1148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="B1148" t="s">
         <v>878</v>
@@ -26215,12 +26298,12 @@
         <v>879</v>
       </c>
       <c r="H1148">
-        <v>22676</v>
+        <v>22664</v>
       </c>
     </row>
     <row r="1149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="B1149" t="s">
         <v>878</v>
@@ -26232,12 +26315,12 @@
         <v>879</v>
       </c>
       <c r="H1149">
-        <v>22677</v>
+        <v>22665</v>
       </c>
     </row>
     <row r="1150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="B1150" t="s">
         <v>878</v>
@@ -26249,12 +26332,12 @@
         <v>879</v>
       </c>
       <c r="H1150">
-        <v>22678</v>
+        <v>22666</v>
       </c>
     </row>
     <row r="1151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="B1151" t="s">
         <v>878</v>
@@ -26266,12 +26349,12 @@
         <v>879</v>
       </c>
       <c r="H1151">
-        <v>22679</v>
+        <v>22667</v>
       </c>
     </row>
     <row r="1152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="B1152" t="s">
         <v>878</v>
@@ -26283,12 +26366,12 @@
         <v>879</v>
       </c>
       <c r="H1152">
-        <v>22680</v>
+        <v>22668</v>
       </c>
     </row>
     <row r="1153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="B1153" t="s">
         <v>878</v>
@@ -26300,12 +26383,12 @@
         <v>879</v>
       </c>
       <c r="H1153">
-        <v>22681</v>
+        <v>22669</v>
       </c>
     </row>
     <row r="1154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="B1154" t="s">
         <v>878</v>
@@ -26317,6 +26400,176 @@
         <v>879</v>
       </c>
       <c r="H1154">
+        <v>22670</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>878</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1155">
+        <v>22671</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>913</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>878</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1156">
+        <v>22672</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>914</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>878</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1157">
+        <v>22675</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>878</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1158">
+        <v>22676</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>916</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>878</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1159">
+        <v>22677</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>917</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>878</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1160">
+        <v>22678</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
+        <v>918</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>878</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1161">
+        <v>22679</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>919</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>878</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1162">
+        <v>22680</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>920</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>878</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1163">
+        <v>22681</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1164" t="s">
+        <v>921</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>878</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1164">
         <v>22682</v>
       </c>
     </row>

--- a/Microsoft 365/Current Channel/visiocontrols.xlsx
+++ b/Microsoft 365/Current Channel/visiocontrols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TcidDocs\CCNov2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TcidDocs\CCJan2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E69ED81-FAE8-4F93-B487-60A6C27CD7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C900B855-F251-46E4-B2CE-050F90274904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5415" windowWidth="51600" windowHeight="15465"/>
+    <workbookView xWindow="2850" yWindow="4260" windowWidth="25470" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="visiocontrols" sheetId="1" r:id="rId1"/>
